--- a/OHRM_TestCase.xlsx
+++ b/OHRM_TestCase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puppa\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3813F0-A069-4E3F-B458-572B81794FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4160EE3-E919-4CC5-9CAA-AE25EE70B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CBBCA8A-B3A1-42B3-8224-3842D545063D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CBBCA8A-B3A1-42B3-8224-3842D545063D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>test case id</t>
   </si>
@@ -103,6 +104,48 @@
   </si>
   <si>
     <t>Browser should be launched</t>
+  </si>
+  <si>
+    <t>Error Message Username cannot be empty</t>
+  </si>
+  <si>
+    <t>Error Message Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Error Message Invalid credentials</t>
+  </si>
+  <si>
+    <t>-1 = Blank input</t>
+  </si>
+  <si>
+    <t>1 = Correct input</t>
+  </si>
+  <si>
+    <t>0 = Wrong input</t>
+  </si>
+  <si>
+    <t>Login successful - Verify Welcome message on Dashboard</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
   </si>
   <si>
     <t>TC_004</t>
@@ -242,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -250,12 +293,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -264,8 +388,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -275,6 +411,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC0049-719D-4A9A-A8C2-78731905CBDC}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -650,8 +795,8 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -659,7 +804,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -700,23 +845,23 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>25</v>
+      <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -727,29 +872,29 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -759,25 +904,25 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
+      <c r="C15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="F15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
@@ -786,63 +931,63 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
-        <v>36</v>
+      <c r="E18" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
-        <v>38</v>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>44</v>
+      <c r="C24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>47</v>
+      <c r="F24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -858,33 +1003,33 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>44</v>
+      <c r="C28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>56</v>
+      <c r="F28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -895,32 +1040,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -934,4 +1079,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AC022E-24CE-4372-AB14-057EFAF6B6D4}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="C9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="C10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>